--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1361">
   <si>
     <t>GANTSNITBLEUL</t>
   </si>
@@ -4093,6 +4093,15 @@
   </si>
   <si>
     <t>ZENSHIELDWAXX4</t>
+  </si>
+  <si>
+    <t>LAVETTE132819</t>
+  </si>
+  <si>
+    <t>SURFACESPRAYANIOS</t>
+  </si>
+  <si>
+    <t>TESTCYD</t>
   </si>
 </sst>
 </file>
@@ -4201,8 +4210,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4510,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1357"/>
+  <dimension ref="A1:B1360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B1357"/>
+      <selection activeCell="A2" sqref="A2:B1360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,7 +5079,7 @@
         <v>209</v>
       </c>
       <c r="B69" s="4">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5078,7 +5087,7 @@
         <v>210</v>
       </c>
       <c r="B70" s="4">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5086,7 +5095,7 @@
         <v>144</v>
       </c>
       <c r="B71" s="4">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5094,7 +5103,7 @@
         <v>145</v>
       </c>
       <c r="B72" s="4">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5102,7 +5111,7 @@
         <v>146</v>
       </c>
       <c r="B73" s="4">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5110,7 +5119,7 @@
         <v>147</v>
       </c>
       <c r="B74" s="4">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5134,7 +5143,7 @@
         <v>149</v>
       </c>
       <c r="B77" s="4">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5222,7 +5231,7 @@
         <v>325</v>
       </c>
       <c r="B88" s="4">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5230,7 +5239,7 @@
         <v>345</v>
       </c>
       <c r="B89" s="4">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,7 +5247,7 @@
         <v>344</v>
       </c>
       <c r="B90" s="4">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -5342,7 +5351,7 @@
         <v>326</v>
       </c>
       <c r="B103" s="4">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5350,7 +5359,7 @@
         <v>327</v>
       </c>
       <c r="B104" s="4">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -5358,7 +5367,7 @@
         <v>328</v>
       </c>
       <c r="B105" s="4">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5366,7 +5375,7 @@
         <v>329</v>
       </c>
       <c r="B106" s="4">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -5374,7 +5383,7 @@
         <v>330</v>
       </c>
       <c r="B107" s="4">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -5382,7 +5391,7 @@
         <v>331</v>
       </c>
       <c r="B108" s="4">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -5398,7 +5407,7 @@
         <v>333</v>
       </c>
       <c r="B110" s="4">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -5414,7 +5423,7 @@
         <v>335</v>
       </c>
       <c r="B112" s="4">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -5422,7 +5431,7 @@
         <v>336</v>
       </c>
       <c r="B113" s="4">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -5430,7 +5439,7 @@
         <v>337</v>
       </c>
       <c r="B114" s="4">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -5454,7 +5463,7 @@
         <v>340</v>
       </c>
       <c r="B117" s="4">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -5462,7 +5471,7 @@
         <v>341</v>
       </c>
       <c r="B118" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -5470,7 +5479,7 @@
         <v>342</v>
       </c>
       <c r="B119" s="4">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -5478,7 +5487,7 @@
         <v>343</v>
       </c>
       <c r="B120" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -5542,7 +5551,7 @@
         <v>242</v>
       </c>
       <c r="B128" s="4">
-        <v>105</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -5582,7 +5591,7 @@
         <v>264</v>
       </c>
       <c r="B133" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -5614,7 +5623,7 @@
         <v>441</v>
       </c>
       <c r="B137" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -5694,7 +5703,7 @@
         <v>449</v>
       </c>
       <c r="B147" s="4">
-        <v>953</v>
+        <v>910</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -5726,7 +5735,7 @@
         <v>314</v>
       </c>
       <c r="B151" s="4">
-        <v>16797</v>
+        <v>16749</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -5846,7 +5855,7 @@
         <v>95</v>
       </c>
       <c r="B166" s="4">
-        <v>11</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -5966,7 +5975,7 @@
         <v>295</v>
       </c>
       <c r="B181" s="4">
-        <v>73175</v>
+        <v>72845</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -5974,7 +5983,7 @@
         <v>481</v>
       </c>
       <c r="B182" s="4">
-        <v>11483</v>
+        <v>11283</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -5990,7 +5999,7 @@
         <v>83</v>
       </c>
       <c r="B184" s="4">
-        <v>290</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -6222,7 +6231,7 @@
         <v>181</v>
       </c>
       <c r="B213" s="4">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -6374,7 +6383,7 @@
         <v>243</v>
       </c>
       <c r="B232" s="4">
-        <v>496</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -6462,7 +6471,7 @@
         <v>172</v>
       </c>
       <c r="B243" s="4">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -6518,7 +6527,7 @@
         <v>534</v>
       </c>
       <c r="B250" s="4">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -6542,7 +6551,7 @@
         <v>212</v>
       </c>
       <c r="B253" s="4">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -6550,7 +6559,7 @@
         <v>213</v>
       </c>
       <c r="B254" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -6558,7 +6567,7 @@
         <v>214</v>
       </c>
       <c r="B255" s="4">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -6566,7 +6575,7 @@
         <v>215</v>
       </c>
       <c r="B256" s="4">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -6574,7 +6583,7 @@
         <v>216</v>
       </c>
       <c r="B257" s="4">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -6606,7 +6615,7 @@
         <v>217</v>
       </c>
       <c r="B261" s="4">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -6614,7 +6623,7 @@
         <v>218</v>
       </c>
       <c r="B262" s="4">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -6622,7 +6631,7 @@
         <v>219</v>
       </c>
       <c r="B263" s="4">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -6630,7 +6639,7 @@
         <v>220</v>
       </c>
       <c r="B264" s="4">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6647,7 @@
         <v>221</v>
       </c>
       <c r="B265" s="4">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -6646,7 +6655,7 @@
         <v>222</v>
       </c>
       <c r="B266" s="4">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -6654,7 +6663,7 @@
         <v>223</v>
       </c>
       <c r="B267" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -6662,7 +6671,7 @@
         <v>224</v>
       </c>
       <c r="B268" s="4">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -6670,7 +6679,7 @@
         <v>225</v>
       </c>
       <c r="B269" s="4">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -6678,7 +6687,7 @@
         <v>226</v>
       </c>
       <c r="B270" s="4">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -6774,7 +6783,7 @@
         <v>140</v>
       </c>
       <c r="B282" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -6838,7 +6847,7 @@
         <v>85</v>
       </c>
       <c r="B290" s="4">
-        <v>881</v>
+        <v>940</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -6862,7 +6871,7 @@
         <v>87</v>
       </c>
       <c r="B293" s="4">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -7246,7 +7255,7 @@
         <v>39</v>
       </c>
       <c r="B341" s="4">
-        <v>4591</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -7438,7 +7447,7 @@
         <v>31</v>
       </c>
       <c r="B365" s="4">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -7630,7 +7639,7 @@
         <v>253</v>
       </c>
       <c r="B389" s="4">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -7686,7 +7695,7 @@
         <v>316</v>
       </c>
       <c r="B396" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -7694,7 +7703,7 @@
         <v>96</v>
       </c>
       <c r="B397" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -7702,7 +7711,7 @@
         <v>312</v>
       </c>
       <c r="B398" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -7718,7 +7727,7 @@
         <v>49</v>
       </c>
       <c r="B400" s="4">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -7806,7 +7815,7 @@
         <v>317</v>
       </c>
       <c r="B411" s="4">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -7830,7 +7839,7 @@
         <v>58</v>
       </c>
       <c r="B414" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -7846,7 +7855,7 @@
         <v>115</v>
       </c>
       <c r="B416" s="4">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -8094,7 +8103,7 @@
         <v>271</v>
       </c>
       <c r="B447" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -8134,7 +8143,7 @@
         <v>62</v>
       </c>
       <c r="B452" s="4">
-        <v>6513</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -8142,7 +8151,7 @@
         <v>157</v>
       </c>
       <c r="B453" s="4">
-        <v>4574</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -8358,7 +8367,7 @@
         <v>198</v>
       </c>
       <c r="B480" s="4">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -8366,7 +8375,7 @@
         <v>244</v>
       </c>
       <c r="B481" s="4">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +8383,7 @@
         <v>245</v>
       </c>
       <c r="B482" s="4">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -8382,7 +8391,7 @@
         <v>246</v>
       </c>
       <c r="B483" s="4">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +8399,7 @@
         <v>183</v>
       </c>
       <c r="B484" s="4">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -8430,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B489" s="4">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -8446,7 +8455,7 @@
         <v>94</v>
       </c>
       <c r="B491" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -8454,7 +8463,7 @@
         <v>63</v>
       </c>
       <c r="B492" s="4">
-        <v>27294</v>
+        <v>27252</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -8486,7 +8495,7 @@
         <v>185</v>
       </c>
       <c r="B496" s="4">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -8502,7 +8511,7 @@
         <v>173</v>
       </c>
       <c r="B498" s="4">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8823,7 @@
         <v>154</v>
       </c>
       <c r="B537" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -8886,7 +8895,7 @@
         <v>163</v>
       </c>
       <c r="B546" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -8902,7 +8911,7 @@
         <v>721</v>
       </c>
       <c r="B548" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -8910,7 +8919,7 @@
         <v>126</v>
       </c>
       <c r="B549" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -8926,7 +8935,7 @@
         <v>107</v>
       </c>
       <c r="B551" s="4">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -8934,7 +8943,7 @@
         <v>164</v>
       </c>
       <c r="B552" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -8958,7 +8967,7 @@
         <v>128</v>
       </c>
       <c r="B555" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -8990,7 +8999,7 @@
         <v>724</v>
       </c>
       <c r="B559" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -9054,7 +9063,7 @@
         <v>130</v>
       </c>
       <c r="B567" s="4">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -9150,7 +9159,7 @@
         <v>174</v>
       </c>
       <c r="B579" s="4">
-        <v>52</v>
+        <v>232</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -9318,7 +9327,7 @@
         <v>309</v>
       </c>
       <c r="B600" s="4">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -9390,7 +9399,7 @@
         <v>165</v>
       </c>
       <c r="B609" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -9398,7 +9407,7 @@
         <v>166</v>
       </c>
       <c r="B610" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -9454,7 +9463,7 @@
         <v>10</v>
       </c>
       <c r="B617" s="4">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -9494,7 +9503,7 @@
         <v>774</v>
       </c>
       <c r="B622" s="4">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -9734,7 +9743,7 @@
         <v>239</v>
       </c>
       <c r="B652" s="4">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -9870,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="B669" s="4">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -9878,7 +9887,7 @@
         <v>5</v>
       </c>
       <c r="B670" s="4">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -10022,7 +10031,7 @@
         <v>21</v>
       </c>
       <c r="B688" s="4">
-        <v>296</v>
+        <v>247</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -10030,7 +10039,7 @@
         <v>22</v>
       </c>
       <c r="B689" s="4">
-        <v>915</v>
+        <v>856</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -10038,7 +10047,7 @@
         <v>23</v>
       </c>
       <c r="B690" s="4">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -10046,7 +10055,7 @@
         <v>24</v>
       </c>
       <c r="B691" s="4">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -10166,7 +10175,7 @@
         <v>133</v>
       </c>
       <c r="B706" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -10246,7 +10255,7 @@
         <v>8</v>
       </c>
       <c r="B716" s="4">
-        <v>9682</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -10270,7 +10279,7 @@
         <v>15</v>
       </c>
       <c r="B719" s="4">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -10614,7 +10623,7 @@
         <v>175</v>
       </c>
       <c r="B762" s="4">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -10814,7 +10823,7 @@
         <v>294</v>
       </c>
       <c r="B787" s="4">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
@@ -10838,7 +10847,7 @@
         <v>200</v>
       </c>
       <c r="B790" s="4">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -10862,7 +10871,7 @@
         <v>285</v>
       </c>
       <c r="B793" s="4">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -10891,7 +10900,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
-        <v>925</v>
+        <v>1358</v>
       </c>
       <c r="B797" s="4">
         <v>0</v>
@@ -10899,7 +10908,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B798" s="4">
         <v>0</v>
@@ -10907,7 +10916,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B799" s="4">
         <v>0</v>
@@ -10915,7 +10924,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B800" s="4">
         <v>0</v>
@@ -10923,39 +10932,39 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B801" s="4">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B802" s="4">
-        <v>483</v>
+        <v>520</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B803" s="4">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B804" s="4">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B805" s="4">
         <v>477</v>
@@ -10963,47 +10972,47 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B806" s="4">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B807" s="4">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B808" s="4">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B809" s="4">
-        <v>1353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B810" s="4">
-        <v>0</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B811" s="4">
         <v>0</v>
@@ -11011,7 +11020,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B812" s="4">
         <v>0</v>
@@ -11019,7 +11028,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B813" s="4">
         <v>0</v>
@@ -11027,111 +11036,111 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B814" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B815" s="4">
-        <v>92</v>
+        <v>200</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
-        <v>117</v>
+        <v>943</v>
       </c>
       <c r="B816" s="4">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="B817" s="4">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B818" s="4">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B819" s="4">
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B820" s="4">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B821" s="4">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
-        <v>944</v>
+        <v>206</v>
       </c>
       <c r="B822" s="4">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B823" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B824" s="4">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
-        <v>12</v>
+        <v>946</v>
       </c>
       <c r="B825" s="4">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
-        <v>947</v>
+        <v>12</v>
       </c>
       <c r="B826" s="4">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B827" s="4">
         <v>0</v>
@@ -11139,7 +11148,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B828" s="4">
         <v>0</v>
@@ -11147,7 +11156,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B829" s="4">
         <v>0</v>
@@ -11155,31 +11164,31 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B830" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B831" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B832" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B833" s="4">
         <v>0</v>
@@ -11187,7 +11196,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B834" s="4">
         <v>0</v>
@@ -11195,15 +11204,15 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B835" s="4">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B836" s="4">
         <v>42</v>
@@ -11211,15 +11220,15 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B837" s="4">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B838" s="4">
         <v>0</v>
@@ -11227,127 +11236,127 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B839" s="4">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B840" s="4">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B841" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B842" s="4">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B843" s="4">
-        <v>433</v>
+        <v>164</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B844" s="4">
-        <v>0</v>
+        <v>421</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B845" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B846" s="4">
-        <v>4991</v>
+        <v>240</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B847" s="4">
-        <v>176</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B848" s="4">
-        <v>117</v>
+        <v>176</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B849" s="4">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B850" s="4">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B851" s="4">
-        <v>6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B852" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B853" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B854" s="4">
         <v>0</v>
@@ -11355,7 +11364,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B855" s="4">
         <v>0</v>
@@ -11363,7 +11372,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B856" s="4">
         <v>0</v>
@@ -11371,7 +11380,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B857" s="4">
         <v>0</v>
@@ -11379,7 +11388,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B858" s="4">
         <v>0</v>
@@ -11387,7 +11396,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B859" s="4">
         <v>0</v>
@@ -11395,79 +11404,79 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B860" s="4">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B861" s="4">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B862" s="4">
-        <v>133</v>
+        <v>25</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B863" s="4">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B864" s="4">
-        <v>939000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B865" s="4">
-        <v>999800</v>
+        <v>939000</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B866" s="4">
-        <v>0</v>
+        <v>999800</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B867" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B868" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B869" s="4">
         <v>0</v>
@@ -11475,23 +11484,23 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B870" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B871" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B872" s="4">
         <v>0</v>
@@ -11499,39 +11508,39 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B873" s="4">
-        <v>880000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B874" s="4">
-        <v>482080</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B875" s="4">
-        <v>92986</v>
+        <v>482080</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B876" s="4">
-        <v>0</v>
+        <v>92986</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B877" s="4">
         <v>0</v>
@@ -11539,159 +11548,159 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B878" s="4">
-        <v>50185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B879" s="4">
-        <v>385158</v>
+        <v>50185</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B880" s="4">
-        <v>1559285</v>
+        <v>385158</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B881" s="4">
-        <v>423</v>
+        <v>1559285</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B882" s="4">
-        <v>114</v>
+        <v>423</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B883" s="4">
-        <v>6250</v>
+        <v>114</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B884" s="4">
-        <v>349</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B885" s="4">
-        <v>34</v>
+        <v>349</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B886" s="4">
-        <v>714</v>
+        <v>34</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B887" s="4">
-        <v>50</v>
+        <v>714</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B888" s="4">
-        <v>676</v>
+        <v>50</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B889" s="4">
-        <v>214</v>
+        <v>676</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B890" s="4">
-        <v>43</v>
+        <v>214</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B891" s="4">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B892" s="4">
-        <v>618</v>
+        <v>197</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B893" s="4">
-        <v>0</v>
+        <v>618</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B894" s="4">
-        <v>608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" s="3" t="s">
-        <v>190</v>
+        <v>1015</v>
       </c>
       <c r="B895" s="4">
-        <v>24</v>
+        <v>608</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" s="3" t="s">
-        <v>1016</v>
+        <v>190</v>
       </c>
       <c r="B896" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B897" s="4">
         <v>0</v>
@@ -11699,7 +11708,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B898" s="4">
         <v>0</v>
@@ -11707,23 +11716,23 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B899" s="4">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B900" s="4">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B901" s="4">
         <v>0</v>
@@ -11731,215 +11740,215 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" s="3" t="s">
-        <v>286</v>
+        <v>1021</v>
       </c>
       <c r="B902" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B903" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B904" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" s="3" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="B905" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
-        <v>1022</v>
+        <v>201</v>
       </c>
       <c r="B906" s="4">
-        <v>294</v>
+        <v>84</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B907" s="4">
-        <v>160</v>
+        <v>294</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B908" s="4">
-        <v>79</v>
+        <v>160</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B909" s="4">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B910" s="4">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B911" s="4">
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B912" s="4">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B913" s="4">
-        <v>70</v>
+        <v>196</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B914" s="4">
-        <v>181</v>
+        <v>70</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B915" s="4">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B916" s="4">
-        <v>78</v>
+        <v>196</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B917" s="4">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B918" s="4">
-        <v>886</v>
+        <v>120</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B919" s="4">
-        <v>67</v>
+        <v>886</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" s="3" t="s">
-        <v>102</v>
+        <v>1035</v>
       </c>
       <c r="B920" s="4">
-        <v>1526</v>
+        <v>67</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B921" s="4">
-        <v>1484</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B922" s="4">
-        <v>1505</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B923" s="4">
-        <v>1532</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" s="3" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="B924" s="4">
-        <v>6855</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" s="3" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="B925" s="4">
-        <v>7372</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" s="3" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="B926" s="4">
-        <v>107.75</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" s="3" t="s">
-        <v>1036</v>
+        <v>13</v>
       </c>
       <c r="B927" s="4">
-        <v>0</v>
+        <v>103.75</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B928" s="4">
         <v>0</v>
@@ -11947,7 +11956,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B929" s="4">
         <v>0</v>
@@ -11955,7 +11964,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B930" s="4">
         <v>0</v>
@@ -11963,7 +11972,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B931" s="4">
         <v>0</v>
@@ -11971,7 +11980,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B932" s="4">
         <v>0</v>
@@ -11979,7 +11988,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B933" s="4">
         <v>0</v>
@@ -11987,7 +11996,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B934" s="4">
         <v>0</v>
@@ -11995,7 +12004,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B935" s="4">
         <v>0</v>
@@ -12003,7 +12012,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B936" s="4">
         <v>0</v>
@@ -12011,7 +12020,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B937" s="4">
         <v>0</v>
@@ -12019,71 +12028,71 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B938" s="4">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B939" s="4">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B940" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" s="3" t="s">
-        <v>287</v>
+        <v>1049</v>
       </c>
       <c r="B941" s="4">
-        <v>177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" s="3" t="s">
-        <v>1050</v>
+        <v>287</v>
       </c>
       <c r="B942" s="4">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" s="3" t="s">
-        <v>247</v>
+        <v>1050</v>
       </c>
       <c r="B943" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" s="3" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="B944" s="4">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" s="3" t="s">
-        <v>1051</v>
+        <v>303</v>
       </c>
       <c r="B945" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B946" s="4">
         <v>0</v>
@@ -12091,7 +12100,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B947" s="4">
         <v>0</v>
@@ -12099,7 +12108,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B948" s="4">
         <v>0</v>
@@ -12107,207 +12116,207 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" s="3" t="s">
-        <v>258</v>
+        <v>1054</v>
       </c>
       <c r="B949" s="4">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B950" s="4">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" s="3" t="s">
-        <v>1055</v>
+        <v>259</v>
       </c>
       <c r="B951" s="4">
-        <v>312</v>
+        <v>124</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B952" s="4">
-        <v>4849</v>
+        <v>312</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B953" s="4">
-        <v>11997</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" s="3" t="s">
-        <v>26</v>
+        <v>1057</v>
       </c>
       <c r="B954" s="4">
-        <v>467</v>
+        <v>11997</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" s="3" t="s">
-        <v>1058</v>
+        <v>26</v>
       </c>
       <c r="B955" s="4">
-        <v>8187</v>
+        <v>358</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B956" s="4">
-        <v>0</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B957" s="4">
-        <v>2652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B958" s="4">
-        <v>932</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B959" s="4">
-        <v>14787</v>
+        <v>932</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B960" s="4">
-        <v>1257</v>
+        <v>14787</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B961" s="4">
-        <v>2873</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B962" s="4">
-        <v>0</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B963" s="4">
-        <v>924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B964" s="4">
-        <v>594</v>
+        <v>924</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B965" s="4">
-        <v>3284</v>
+        <v>594</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B966" s="4">
-        <v>6</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B967" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B968" s="4">
-        <v>974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A969" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B969" s="4">
-        <v>444</v>
+        <v>974</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B970" s="4">
-        <v>996</v>
+        <v>444</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B971" s="4">
-        <v>0</v>
+        <v>996</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" s="3" t="s">
-        <v>84</v>
+        <v>1074</v>
       </c>
       <c r="B972" s="4">
-        <v>389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" s="3" t="s">
-        <v>1075</v>
+        <v>84</v>
       </c>
       <c r="B973" s="4">
-        <v>0</v>
+        <v>389</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B974" s="4">
         <v>0</v>
@@ -12315,7 +12324,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B975" s="4">
         <v>0</v>
@@ -12323,7 +12332,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B976" s="4">
         <v>0</v>
@@ -12331,7 +12340,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B977" s="4">
         <v>0</v>
@@ -12339,7 +12348,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B978" s="4">
         <v>0</v>
@@ -12347,63 +12356,63 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A979" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B979" s="4">
-        <v>7215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" s="3" t="s">
-        <v>28</v>
+        <v>1081</v>
       </c>
       <c r="B980" s="4">
-        <v>46</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A981" s="3" t="s">
-        <v>1082</v>
+        <v>28</v>
       </c>
       <c r="B981" s="4">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A982" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B982" s="4">
-        <v>95</v>
+        <v>985</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B983" s="4">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A984" s="3" t="s">
-        <v>27</v>
+        <v>1084</v>
       </c>
       <c r="B984" s="4">
-        <v>899</v>
+        <v>13</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" s="3" t="s">
-        <v>1085</v>
+        <v>27</v>
       </c>
       <c r="B985" s="4">
-        <v>0</v>
+        <v>781</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A986" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B986" s="4">
         <v>0</v>
@@ -12411,31 +12420,31 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B987" s="4">
-        <v>3419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A988" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B988" s="4">
-        <v>2615</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A989" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B989" s="4">
-        <v>0</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A990" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B990" s="4">
         <v>0</v>
@@ -12443,79 +12452,79 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A991" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B991" s="4">
-        <v>2469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B992" s="4">
-        <v>0</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B993" s="4">
-        <v>369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B994" s="4">
-        <v>7958</v>
+        <v>369</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B995" s="4">
-        <v>8588</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B996" s="4">
-        <v>8602</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B997" s="4">
-        <v>8630</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B998" s="4">
-        <v>8080</v>
+        <v>8630</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B999" s="4">
-        <v>0</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1000" s="4">
         <v>0</v>
@@ -12523,7 +12532,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1001" s="4">
         <v>0</v>
@@ -12531,7 +12540,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B1002" s="4">
         <v>0</v>
@@ -12539,7 +12548,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1003" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1003" s="4">
         <v>0</v>
@@ -12547,7 +12556,7 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B1004" s="4">
         <v>0</v>
@@ -12555,23 +12564,23 @@
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1005" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1005" s="4">
-        <v>9975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1006" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1006" s="4">
-        <v>0</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1007" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1007" s="4">
         <v>0</v>
@@ -12579,31 +12588,31 @@
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1008" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1008" s="4">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1009" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1009" s="4">
-        <v>1690</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1010" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1010" s="4">
-        <v>0</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1011" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B1011" s="4">
         <v>0</v>
@@ -12611,23 +12620,23 @@
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1012" s="3" t="s">
-        <v>38</v>
+        <v>1111</v>
       </c>
       <c r="B1012" s="4">
-        <v>34726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1013" s="3" t="s">
-        <v>1112</v>
+        <v>38</v>
       </c>
       <c r="B1013" s="4">
-        <v>0</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1014" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1014" s="4">
         <v>0</v>
@@ -12635,7 +12644,7 @@
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1015" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B1015" s="4">
         <v>0</v>
@@ -12643,63 +12652,63 @@
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1016" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1016" s="4">
-        <v>853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1017" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1017" s="4">
-        <v>20</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1018" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B1018" s="4">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1019" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B1019" s="4">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1020" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B1020" s="4">
-        <v>4993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1021" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B1021" s="4">
-        <v>501</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1022" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1022" s="4">
-        <v>0</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1023" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B1023" s="4">
         <v>0</v>
@@ -12707,47 +12716,47 @@
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1024" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1024" s="4">
-        <v>4998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1025" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B1025" s="4">
-        <v>4993</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1026" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B1026" s="4">
-        <v>491</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1027" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B1027" s="4">
-        <v>400</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1028" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1028" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1029" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1029" s="4">
         <v>0</v>
@@ -12755,7 +12764,7 @@
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1030" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1030" s="4">
         <v>0</v>
@@ -12763,7 +12772,7 @@
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1031" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B1031" s="4">
         <v>0</v>
@@ -12771,63 +12780,63 @@
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1032" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1032" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1033" s="3" t="s">
-        <v>321</v>
+        <v>1131</v>
       </c>
       <c r="B1033" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1034" s="3" t="s">
-        <v>1132</v>
+        <v>321</v>
       </c>
       <c r="B1034" s="4">
-        <v>4860</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1035" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B1035" s="4">
-        <v>0</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1036" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1036" s="4">
-        <v>29884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1037" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B1037" s="4">
-        <v>29873</v>
+        <v>29884</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1038" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B1038" s="4">
-        <v>0</v>
+        <v>29873</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1039" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B1039" s="4">
         <v>0</v>
@@ -12835,7 +12844,7 @@
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1040" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B1040" s="4">
         <v>0</v>
@@ -12843,71 +12852,71 @@
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1041" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B1041" s="4">
-        <v>29831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1042" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1042" s="4">
-        <v>29593</v>
+        <v>29831</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1043" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B1043" s="4">
-        <v>0</v>
+        <v>29593</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1044" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B1044" s="4">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1045" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1045" s="4">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1046" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B1046" s="4">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1047" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B1047" s="4">
-        <v>36</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1048" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1049" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1049" s="4">
         <v>0</v>
@@ -12915,7 +12924,7 @@
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1050" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1050" s="4">
         <v>0</v>
@@ -12923,7 +12932,7 @@
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1051" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1051" s="4">
         <v>0</v>
@@ -12931,39 +12940,39 @@
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1052" s="3" t="s">
-        <v>108</v>
+        <v>1149</v>
       </c>
       <c r="B1052" s="4">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1053" s="3" t="s">
-        <v>1150</v>
+        <v>108</v>
       </c>
       <c r="B1053" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1054" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1054" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1055" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1055" s="4">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1056" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1056" s="4">
         <v>0</v>
@@ -12971,23 +12980,23 @@
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1057" s="3" t="s">
-        <v>33</v>
+        <v>1153</v>
       </c>
       <c r="B1057" s="4">
-        <v>325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1058" s="3" t="s">
-        <v>1154</v>
+        <v>33</v>
       </c>
       <c r="B1058" s="4">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1059" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1059" s="4">
         <v>0</v>
@@ -12995,39 +13004,39 @@
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1060" s="3" t="s">
-        <v>89</v>
+        <v>1155</v>
       </c>
       <c r="B1060" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1061" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1061" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1062" s="3" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B1062" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1063" s="3" t="s">
-        <v>1156</v>
+        <v>43</v>
       </c>
       <c r="B1063" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1064" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1064" s="4">
         <v>0</v>
@@ -13035,7 +13044,7 @@
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1065" s="3" t="s">
-        <v>109</v>
+        <v>1157</v>
       </c>
       <c r="B1065" s="4">
         <v>0</v>
@@ -13043,7 +13052,7 @@
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1066" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1066" s="4">
         <v>0</v>
@@ -13051,7 +13060,7 @@
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1067" s="3" t="s">
-        <v>1158</v>
+        <v>110</v>
       </c>
       <c r="B1067" s="4">
         <v>0</v>
@@ -13059,7 +13068,7 @@
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1068" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B1068" s="4">
         <v>0</v>
@@ -13067,7 +13076,7 @@
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1069" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1069" s="4">
         <v>0</v>
@@ -13075,7 +13084,7 @@
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1070" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1070" s="4">
         <v>0</v>
@@ -13083,47 +13092,47 @@
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1071" s="3" t="s">
-        <v>176</v>
+        <v>1161</v>
       </c>
       <c r="B1071" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1072" s="3" t="s">
-        <v>1162</v>
+        <v>176</v>
       </c>
       <c r="B1072" s="4">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1073" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B1073" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1074" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1074" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1075" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1075" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1076" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1076" s="4">
         <v>0</v>
@@ -13131,7 +13140,7 @@
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1077" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1077" s="4">
         <v>0</v>
@@ -13139,7 +13148,7 @@
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1078" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1078" s="4">
         <v>0</v>
@@ -13147,47 +13156,47 @@
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1079" s="3" t="s">
-        <v>167</v>
+        <v>1168</v>
       </c>
       <c r="B1079" s="4">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1080" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="B1080" s="4">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1081" s="3" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="B1081" s="4">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1082" s="3" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="B1082" s="4">
-        <v>63</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1083" s="3" t="s">
-        <v>1169</v>
+        <v>191</v>
       </c>
       <c r="B1083" s="4">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1084" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1084" s="4">
         <v>0</v>
@@ -13195,47 +13204,47 @@
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1085" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1085" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1086" s="3" t="s">
-        <v>192</v>
+        <v>1171</v>
       </c>
       <c r="B1086" s="4">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1087" s="3" t="s">
-        <v>1172</v>
+        <v>192</v>
       </c>
       <c r="B1087" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1088" s="3" t="s">
-        <v>266</v>
+        <v>1172</v>
       </c>
       <c r="B1088" s="4">
-        <v>494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1089" s="3" t="s">
-        <v>1173</v>
+        <v>266</v>
       </c>
       <c r="B1089" s="4">
-        <v>0</v>
+        <v>467</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1090" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1090" s="4">
         <v>0</v>
@@ -13243,7 +13252,7 @@
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1091" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1091" s="4">
         <v>0</v>
@@ -13251,7 +13260,7 @@
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1092" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1092" s="4">
         <v>0</v>
@@ -13259,23 +13268,23 @@
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1093" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1093" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1094" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1094" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1095" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1095" s="4">
         <v>0</v>
@@ -13283,7 +13292,7 @@
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1096" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1096" s="4">
         <v>0</v>
@@ -13291,7 +13300,7 @@
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1097" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1097" s="4">
         <v>0</v>
@@ -13299,7 +13308,7 @@
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1098" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1098" s="4">
         <v>0</v>
@@ -13307,7 +13316,7 @@
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1099" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1099" s="4">
         <v>0</v>
@@ -13315,231 +13324,231 @@
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1100" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1100" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1101" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1101" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1102" s="3" t="s">
-        <v>178</v>
+        <v>1185</v>
       </c>
       <c r="B1102" s="4">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1103" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B1103" s="4">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1104" s="3" t="s">
-        <v>1186</v>
+        <v>193</v>
       </c>
       <c r="B1104" s="4">
-        <v>196</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1105" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B1105" s="4">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1106" s="3" t="s">
-        <v>168</v>
+        <v>1187</v>
       </c>
       <c r="B1106" s="4">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1107" s="3" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B1107" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1108" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1108" s="4">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1109" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1109" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1110" s="3" t="s">
-        <v>1188</v>
+        <v>68</v>
       </c>
       <c r="B1110" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1111" s="3" t="s">
-        <v>69</v>
+        <v>1188</v>
       </c>
       <c r="B1111" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1112" s="3" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="B1112" s="4">
-        <v>888</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1113" s="3" t="s">
-        <v>1189</v>
+        <v>299</v>
       </c>
       <c r="B1113" s="4">
-        <v>3</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1114" s="3" t="s">
-        <v>70</v>
+        <v>1189</v>
       </c>
       <c r="B1114" s="4">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1115" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1115" s="4">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1116" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1116" s="4">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1117" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1117" s="4">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1118" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1118" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1119" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1119" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1120" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1120" s="4">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1121" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1121" s="4">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1122" s="3" t="s">
-        <v>1190</v>
+        <v>77</v>
       </c>
       <c r="B1122" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1123" s="3" t="s">
-        <v>78</v>
+        <v>1190</v>
       </c>
       <c r="B1123" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1124" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1124" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1125" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1125" s="4">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1126" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1126" s="4">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1127" s="3" t="s">
-        <v>1191</v>
+        <v>81</v>
       </c>
       <c r="B1127" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1128" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1128" s="4">
         <v>0</v>
@@ -13547,71 +13556,71 @@
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1129" s="3" t="s">
-        <v>14</v>
+        <v>1192</v>
       </c>
       <c r="B1129" s="4">
-        <v>44.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1130" s="3" t="s">
-        <v>1193</v>
+        <v>14</v>
       </c>
       <c r="B1130" s="4">
-        <v>1</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1131" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1131" s="4">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1132" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1132" s="4">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1133" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1133" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1134" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1134" s="4">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1135" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1135" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1136" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1136" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1137" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1137" s="4">
         <v>0</v>
@@ -13619,23 +13628,23 @@
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1138" s="3" t="s">
-        <v>36</v>
+        <v>1200</v>
       </c>
       <c r="B1138" s="4">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1139" s="3" t="s">
-        <v>1201</v>
+        <v>36</v>
       </c>
       <c r="B1139" s="4">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1140" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1140" s="4">
         <v>0</v>
@@ -13643,31 +13652,31 @@
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1141" s="3" t="s">
-        <v>156</v>
+        <v>1202</v>
       </c>
       <c r="B1141" s="4">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1142" s="3" t="s">
-        <v>1203</v>
+        <v>156</v>
       </c>
       <c r="B1142" s="4">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1143" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1143" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1144" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1144" s="4">
         <v>0</v>
@@ -13675,7 +13684,7 @@
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1145" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1145" s="4">
         <v>0</v>
@@ -13683,7 +13692,7 @@
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1146" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1146" s="4">
         <v>0</v>
@@ -13691,7 +13700,7 @@
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1147" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1147" s="4">
         <v>0</v>
@@ -13699,39 +13708,39 @@
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1148" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1148" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1149" s="3" t="s">
-        <v>18</v>
+        <v>1209</v>
       </c>
       <c r="B1149" s="4">
-        <v>1840</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1150" s="3" t="s">
-        <v>1210</v>
+        <v>18</v>
       </c>
       <c r="B1150" s="4">
-        <v>34</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1151" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1151" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1152" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1152" s="4">
         <v>0</v>
@@ -13739,63 +13748,63 @@
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1153" s="3" t="s">
-        <v>19</v>
+        <v>1212</v>
       </c>
       <c r="B1153" s="4">
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1154" s="3" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B1154" s="4">
-        <v>420</v>
+        <v>465</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1155" s="3" t="s">
-        <v>1213</v>
+        <v>112</v>
       </c>
       <c r="B1155" s="4">
-        <v>0</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1156" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1156" s="4">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1157" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1157" s="4">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1158" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1158" s="4">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1159" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1159" s="4">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1160" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1160" s="4">
         <v>114</v>
@@ -13803,87 +13812,87 @@
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1161" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1161" s="4">
-        <v>36</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1162" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1162" s="4">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1163" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1163" s="4">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1164" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1164" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1165" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1165" s="4">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1166" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1166" s="4">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1167" s="3" t="s">
-        <v>269</v>
+        <v>1224</v>
       </c>
       <c r="B1167" s="4">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1168" s="3" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="B1168" s="4">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1169" s="3" t="s">
-        <v>1225</v>
+        <v>194</v>
       </c>
       <c r="B1169" s="4">
-        <v>422</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1170" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1170" s="4">
-        <v>0</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1171" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1171" s="4">
         <v>0</v>
@@ -13891,31 +13900,31 @@
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1172" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1172" s="4">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1173" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1173" s="4">
-        <v>252</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1174" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1174" s="4">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1175" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1175" s="4">
         <v>0</v>
@@ -13923,7 +13932,7 @@
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1176" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1176" s="4">
         <v>0</v>
@@ -13931,7 +13940,7 @@
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1177" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1177" s="4">
         <v>0</v>
@@ -13939,7 +13948,7 @@
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1178" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1178" s="4">
         <v>0</v>
@@ -13947,7 +13956,7 @@
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1179" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1179" s="4">
         <v>0</v>
@@ -13955,7 +13964,7 @@
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1180" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1180" s="4">
         <v>0</v>
@@ -13963,7 +13972,7 @@
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1181" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1181" s="4">
         <v>0</v>
@@ -13971,31 +13980,31 @@
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1182" s="3" t="s">
-        <v>120</v>
+        <v>1237</v>
       </c>
       <c r="B1182" s="4">
-        <v>585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1183" s="3" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="B1183" s="4">
-        <v>884</v>
+        <v>543</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1184" s="3" t="s">
-        <v>121</v>
+        <v>310</v>
       </c>
       <c r="B1184" s="4">
-        <v>0</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1185" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1185" s="4">
         <v>0</v>
@@ -14003,7 +14012,7 @@
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1186" s="3" t="s">
-        <v>1238</v>
+        <v>122</v>
       </c>
       <c r="B1186" s="4">
         <v>0</v>
@@ -14011,7 +14020,7 @@
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1187" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B1187" s="4">
         <v>0</v>
@@ -14019,23 +14028,23 @@
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1188" s="3" t="s">
-        <v>257</v>
+        <v>1239</v>
       </c>
       <c r="B1188" s="4">
-        <v>517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1189" s="3" t="s">
-        <v>1240</v>
+        <v>257</v>
       </c>
       <c r="B1189" s="4">
-        <v>0</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1190" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1190" s="4">
         <v>0</v>
@@ -14043,7 +14052,7 @@
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1191" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1191" s="4">
         <v>0</v>
@@ -14051,7 +14060,7 @@
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1192" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1192" s="4">
         <v>0</v>
@@ -14059,71 +14068,71 @@
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1193" s="3" t="s">
-        <v>346</v>
+        <v>1243</v>
       </c>
       <c r="B1193" s="4">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1194" s="3" t="s">
-        <v>1244</v>
+        <v>346</v>
       </c>
       <c r="B1194" s="4">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1195" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1195" s="4">
-        <v>5506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1196" s="3" t="s">
-        <v>275</v>
+        <v>1245</v>
       </c>
       <c r="B1196" s="4">
-        <v>316</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1197" s="3" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="B1197" s="4">
-        <v>37066</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1198" s="3" t="s">
-        <v>1246</v>
+        <v>111</v>
       </c>
       <c r="B1198" s="4">
-        <v>0</v>
+        <v>35654</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1199" s="3" t="s">
-        <v>169</v>
+        <v>1246</v>
       </c>
       <c r="B1199" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1200" s="3" t="s">
-        <v>1247</v>
+        <v>169</v>
       </c>
       <c r="B1200" s="4">
-        <v>0</v>
+        <v>15917</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1201" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1201" s="4">
         <v>0</v>
@@ -14131,7 +14140,7 @@
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1202" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B1202" s="4">
         <v>0</v>
@@ -14139,7 +14148,7 @@
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1203" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1203" s="4">
         <v>0</v>
@@ -14147,71 +14156,71 @@
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1204" s="3" t="s">
-        <v>277</v>
+        <v>1250</v>
       </c>
       <c r="B1204" s="4">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1205" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1205" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1206" s="3" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="B1206" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1207" s="3" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="B1207" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1208" s="3" t="s">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="B1208" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1209" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1209" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1210" s="3" t="s">
-        <v>1251</v>
+        <v>100</v>
       </c>
       <c r="B1210" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1211" s="3" t="s">
-        <v>318</v>
+        <v>1251</v>
       </c>
       <c r="B1211" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1212" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1212" s="4">
         <v>18</v>
@@ -14219,7 +14228,7 @@
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1213" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1213" s="4">
         <v>18</v>
@@ -14227,127 +14236,127 @@
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1214" s="3" t="s">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="B1214" s="4">
-        <v>187</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1215" s="3" t="s">
-        <v>1252</v>
+        <v>195</v>
       </c>
       <c r="B1215" s="4">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1216" s="3" t="s">
-        <v>180</v>
+        <v>1252</v>
       </c>
       <c r="B1216" s="4">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1217" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B1217" s="4">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1218" s="3" t="s">
-        <v>1253</v>
+        <v>196</v>
       </c>
       <c r="B1218" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1219" s="3" t="s">
-        <v>61</v>
+        <v>1253</v>
       </c>
       <c r="B1219" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1220" s="3" t="s">
-        <v>1254</v>
+        <v>61</v>
       </c>
       <c r="B1220" s="4">
-        <v>512</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1221" s="4">
-        <v>240</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1222" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1222" s="4">
-        <v>156</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1223" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1223" s="4">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1224" s="3" t="s">
-        <v>304</v>
+        <v>1257</v>
       </c>
       <c r="B1224" s="4">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1225" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1225" s="4">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1226" s="3" t="s">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="B1226" s="4">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1227" s="3" t="s">
-        <v>1258</v>
+        <v>32</v>
       </c>
       <c r="B1227" s="4">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1228" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1228" s="4">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1229" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1229" s="4">
         <v>0</v>
@@ -14355,7 +14364,7 @@
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1230" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1230" s="4">
         <v>0</v>
@@ -14363,7 +14372,7 @@
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1231" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1231" s="4">
         <v>0</v>
@@ -14371,7 +14380,7 @@
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1232" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1232" s="4">
         <v>0</v>
@@ -14379,47 +14388,47 @@
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1233" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1233" s="4">
-        <v>399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1234" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1234" s="4">
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1235" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1235" s="4">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1236" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1236" s="4">
-        <v>770</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1237" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1237" s="4">
-        <v>0</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1238" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1238" s="4">
         <v>0</v>
@@ -14427,7 +14436,7 @@
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1239" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1239" s="4">
         <v>0</v>
@@ -14435,7 +14444,7 @@
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1240" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1240" s="4">
         <v>0</v>
@@ -14443,23 +14452,23 @@
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1241" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1241" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1242" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1242" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1243" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1243" s="4">
         <v>0</v>
@@ -14467,7 +14476,7 @@
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1244" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1244" s="4">
         <v>0</v>
@@ -14475,7 +14484,7 @@
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1245" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1245" s="4">
         <v>0</v>
@@ -14483,7 +14492,7 @@
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1246" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1246" s="4">
         <v>0</v>
@@ -14491,7 +14500,7 @@
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1247" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1247" s="4">
         <v>0</v>
@@ -14499,7 +14508,7 @@
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1248" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1248" s="4">
         <v>0</v>
@@ -14507,23 +14516,23 @@
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1249" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1249" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1250" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1250" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1251" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1251" s="4">
         <v>60</v>
@@ -14531,15 +14540,15 @@
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1252" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1252" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1253" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1253" s="4">
         <v>0</v>
@@ -14547,23 +14556,23 @@
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1254" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1254" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1255" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1255" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1256" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1256" s="4">
         <v>0</v>
@@ -14571,7 +14580,7 @@
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1257" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1257" s="4">
         <v>0</v>
@@ -14579,7 +14588,7 @@
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1258" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1258" s="4">
         <v>0</v>
@@ -14587,7 +14596,7 @@
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1259" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1259" s="4">
         <v>0</v>
@@ -14595,23 +14604,23 @@
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1260" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1260" s="4">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1261" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1261" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1262" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1262" s="4">
         <v>0</v>
@@ -14619,7 +14628,7 @@
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1263" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1263" s="4">
         <v>0</v>
@@ -14627,7 +14636,7 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1264" s="4">
         <v>0</v>
@@ -14635,7 +14644,7 @@
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1265" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1265" s="4">
         <v>0</v>
@@ -14643,7 +14652,7 @@
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1266" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1266" s="4">
         <v>0</v>
@@ -14651,7 +14660,7 @@
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1267" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1267" s="4">
         <v>0</v>
@@ -14659,31 +14668,31 @@
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1268" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1268" s="4">
-        <v>956.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1269" s="3" t="s">
-        <v>9</v>
+        <v>1299</v>
       </c>
       <c r="B1269" s="4">
-        <v>13</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1270" s="3" t="s">
-        <v>1300</v>
+        <v>9</v>
       </c>
       <c r="B1270" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1271" s="3" t="s">
-        <v>1301</v>
+        <v>1359</v>
       </c>
       <c r="B1271" s="4">
         <v>0</v>
@@ -14691,15 +14700,15 @@
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1272" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B1272" s="4">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1273" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B1273" s="4">
         <v>0</v>
@@ -14707,55 +14716,55 @@
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1274" s="3" t="s">
-        <v>64</v>
+        <v>1302</v>
       </c>
       <c r="B1274" s="4">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1275" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1275" s="4">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1276" s="3" t="s">
-        <v>1305</v>
+        <v>64</v>
       </c>
       <c r="B1276" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1277" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B1277" s="4">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1278" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B1278" s="4">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1279" s="3" t="s">
-        <v>177</v>
+        <v>1306</v>
       </c>
       <c r="B1279" s="4">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1280" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1280" s="4">
         <v>0</v>
@@ -14763,15 +14772,15 @@
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1281" s="3" t="s">
-        <v>1309</v>
+        <v>177</v>
       </c>
       <c r="B1281" s="4">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1282" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B1282" s="4">
         <v>0</v>
@@ -14779,15 +14788,15 @@
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1283" s="3" t="s">
-        <v>6</v>
+        <v>1309</v>
       </c>
       <c r="B1283" s="4">
-        <v>485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1284" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1284" s="4">
         <v>0</v>
@@ -14795,143 +14804,143 @@
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1285" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1285" s="4">
-        <v>256</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1286" s="3" t="s">
-        <v>315</v>
+        <v>1311</v>
       </c>
       <c r="B1286" s="4">
-        <v>5050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1287" s="3" t="s">
-        <v>1312</v>
+        <v>4</v>
       </c>
       <c r="B1287" s="4">
-        <v>1350</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1288" s="3" t="s">
-        <v>1313</v>
+        <v>315</v>
       </c>
       <c r="B1288" s="4">
-        <v>6425</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1289" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B1289" s="4">
-        <v>0</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1290" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B1290" s="4">
-        <v>1000</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1291" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B1291" s="4">
-        <v>7005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1292" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B1292" s="4">
-        <v>255</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1293" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B1293" s="4">
-        <v>1414</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1294" s="3" t="s">
-        <v>297</v>
+        <v>1317</v>
       </c>
       <c r="B1294" s="4">
-        <v>28550</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1295" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1295" s="4">
-        <v>20063</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1296" s="3" t="s">
-        <v>1320</v>
+        <v>297</v>
       </c>
       <c r="B1296" s="4">
-        <v>220</v>
+        <v>28300</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1297" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B1297" s="4">
-        <v>1050</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1298" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B1298" s="4">
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1299" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B1299" s="4">
-        <v>0</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1300" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B1300" s="4">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1301" s="3" t="s">
-        <v>1325</v>
+        <v>1360</v>
       </c>
       <c r="B1301" s="4">
-        <v>46.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1302" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B1302" s="4">
         <v>0</v>
@@ -14939,23 +14948,23 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1303" s="3" t="s">
-        <v>101</v>
+        <v>1324</v>
       </c>
       <c r="B1303" s="4">
-        <v>12861</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1304" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B1304" s="4">
-        <v>1450</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1305" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B1305" s="4">
         <v>0</v>
@@ -14963,39 +14972,39 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1306" s="3" t="s">
-        <v>1329</v>
+        <v>101</v>
       </c>
       <c r="B1306" s="4">
-        <v>330</v>
+        <v>8661</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1307" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B1307" s="4">
-        <v>0</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1308" s="3" t="s">
-        <v>296</v>
+        <v>1328</v>
       </c>
       <c r="B1308" s="4">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1309" s="3" t="s">
-        <v>82</v>
+        <v>1329</v>
       </c>
       <c r="B1309" s="4">
-        <v>5134</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1310" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1310" s="4">
         <v>0</v>
@@ -15003,23 +15012,23 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1311" s="3" t="s">
-        <v>1332</v>
+        <v>296</v>
       </c>
       <c r="B1311" s="4">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1312" s="3" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="B1312" s="4">
-        <v>709</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1313" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B1313" s="4">
         <v>0</v>
@@ -15027,103 +15036,103 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1314" s="3" t="s">
-        <v>261</v>
+        <v>1332</v>
       </c>
       <c r="B1314" s="4">
-        <v>785</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1315" s="3" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B1315" s="4">
-        <v>0</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1316" s="3" t="s">
-        <v>232</v>
+        <v>1333</v>
       </c>
       <c r="B1316" s="4">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1317" s="3" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="B1317" s="4">
-        <v>84</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1318" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B1318" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1319" s="3" t="s">
-        <v>1334</v>
+        <v>232</v>
       </c>
       <c r="B1319" s="4">
-        <v>1783</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1320" s="3" t="s">
-        <v>1335</v>
+        <v>233</v>
       </c>
       <c r="B1320" s="4">
-        <v>421</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1321" s="3" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="B1321" s="4">
-        <v>2669</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1322" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B1322" s="4">
-        <v>566</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1323" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B1323" s="4">
-        <v>0</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1324" s="3" t="s">
-        <v>1338</v>
+        <v>37</v>
       </c>
       <c r="B1324" s="4">
-        <v>0</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1325" s="3" t="s">
-        <v>3</v>
+        <v>1336</v>
       </c>
       <c r="B1325" s="4">
-        <v>24</v>
+        <v>566</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1326" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B1326" s="4">
         <v>0</v>
@@ -15131,7 +15140,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1327" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B1327" s="4">
         <v>0</v>
@@ -15139,191 +15148,191 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1328" s="3" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="B1328" s="4">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1329" s="3" t="s">
-        <v>311</v>
+        <v>1339</v>
       </c>
       <c r="B1329" s="4">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1330" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1330" s="4">
-        <v>639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1331" s="3" t="s">
-        <v>1342</v>
+        <v>197</v>
       </c>
       <c r="B1331" s="4">
-        <v>225</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1332" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B1332" s="4">
-        <v>9650</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1333" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B1333" s="4">
-        <v>200</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1334" s="3" t="s">
-        <v>262</v>
+        <v>1342</v>
       </c>
       <c r="B1334" s="4">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1335" s="3" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="B1335" s="4">
-        <v>113</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1336" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1336" s="4">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1337" s="3" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="B1337" s="4">
-        <v>418</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1338" s="3" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="B1338" s="4">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1339" s="3" t="s">
-        <v>265</v>
+        <v>1344</v>
       </c>
       <c r="B1339" s="4">
-        <v>342</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1340" s="3" t="s">
-        <v>1345</v>
+        <v>65</v>
       </c>
       <c r="B1340" s="4">
-        <v>32</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1341" s="3" t="s">
-        <v>1346</v>
+        <v>179</v>
       </c>
       <c r="B1341" s="4">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1342" s="3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B1342" s="4">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1343" s="3" t="s">
-        <v>249</v>
+        <v>1345</v>
       </c>
       <c r="B1343" s="4">
-        <v>192</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1344" s="3" t="s">
-        <v>250</v>
+        <v>1346</v>
       </c>
       <c r="B1344" s="4">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1345" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B1345" s="4">
-        <v>379</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1346" s="3" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="B1346" s="4">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1347" s="3" t="s">
-        <v>1347</v>
+        <v>250</v>
       </c>
       <c r="B1347" s="4">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1348" s="3" t="s">
-        <v>1348</v>
+        <v>251</v>
       </c>
       <c r="B1348" s="4">
-        <v>0</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1349" s="3" t="s">
-        <v>1349</v>
+        <v>290</v>
       </c>
       <c r="B1349" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1350" s="3" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="B1350" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1351" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B1351" s="4">
         <v>0</v>
@@ -15331,7 +15340,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1352" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B1352" s="4">
         <v>0</v>
@@ -15339,15 +15348,15 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1353" s="3" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B1353" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1354" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B1354" s="4">
         <v>0</v>
@@ -15355,7 +15364,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1355" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B1355" s="4">
         <v>0</v>
@@ -15363,7 +15372,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1356" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B1356" s="4">
         <v>0</v>
@@ -15371,9 +15380,33 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1357" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1357" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1358" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1359" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1359" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1360" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="B1357" s="4">
+      <c r="B1360" s="4">
         <v>0</v>
       </c>
     </row>
